--- a/data/evaluation/evaluation_South_Autumn_Clementines.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Clementines.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2781.75106442577</v>
+        <v>2787.278123249299</v>
       </c>
       <c r="C3" t="n">
-        <v>19755126.96595779</v>
+        <v>16867626.39834533</v>
       </c>
       <c r="D3" t="n">
-        <v>4444.673999964203</v>
+        <v>4107.021597014719</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.530352087943948</v>
+        <v>-1.160504144026</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2573.567662181321</v>
+        <v>2669.157220416168</v>
       </c>
       <c r="C4" t="n">
-        <v>13977210.9016434</v>
+        <v>15311996.44341847</v>
       </c>
       <c r="D4" t="n">
-        <v>3738.610825111835</v>
+        <v>3913.054617995827</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7902828389587913</v>
+        <v>-0.9612499700943213</v>
       </c>
     </row>
     <row r="5">
